--- a/Test-Cases/Reddit Test Case.xlsx
+++ b/Test-Cases/Reddit Test Case.xlsx
@@ -463,7 +463,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +504,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -569,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -605,19 +611,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -636,6 +635,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,7 +863,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G26"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -870,10 +879,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -937,7 +946,7 @@
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1"/>
@@ -1089,7 +1098,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="12.75">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1118,7 +1127,7 @@
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="12.75">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1196,16 +1205,16 @@
       <c r="B11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="23" t="s">
         <v>87</v>
       </c>
       <c r="G11" s="16" t="s">
@@ -1242,13 +1251,13 @@
       <c r="C12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="16" t="s">
@@ -1276,22 +1285,22 @@
       <c r="AA12" s="9"/>
     </row>
     <row r="13" spans="1:27" ht="63.75">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="23" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="16" t="s">
@@ -1322,19 +1331,19 @@
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="22" t="s">
         <v>92</v>
       </c>
       <c r="G14" s="16" t="s">
@@ -1371,13 +1380,13 @@
       <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="23" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="16" t="s">
@@ -1404,7 +1413,7 @@
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
     </row>
-    <row r="16" spans="1:27" ht="25.5">
+    <row r="16" spans="1:27" ht="38.25">
       <c r="A16" s="17" t="s">
         <v>37</v>
       </c>
@@ -1414,13 +1423,13 @@
       <c r="C16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="22" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="22" t="s">
         <v>41</v>
       </c>
       <c r="G16" s="16" t="s">
@@ -1457,13 +1466,13 @@
       <c r="C17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="28" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="16" t="s">
@@ -1500,10 +1509,10 @@
       <c r="C18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="22" t="s">
         <v>51</v>
       </c>
       <c r="F18" s="17" t="s">
@@ -1537,16 +1546,16 @@
       <c r="A19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="23" t="s">
         <v>100</v>
       </c>
       <c r="F19" s="15" t="s">
@@ -1580,19 +1589,19 @@
       <c r="A20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="25" t="s">
         <v>93</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="22" t="s">
         <v>102</v>
       </c>
       <c r="G20" s="16" t="s">
@@ -1623,19 +1632,19 @@
       <c r="A21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="23" t="s">
         <v>98</v>
       </c>
       <c r="G21" s="16" t="s">
@@ -1666,19 +1675,19 @@
       <c r="A22" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="22" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="22" t="s">
         <v>97</v>
       </c>
       <c r="G22" s="16" t="s">
@@ -1709,16 +1718,16 @@
       <c r="A23" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="23" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="15" t="s">
@@ -1761,10 +1770,10 @@
       <c r="D24" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="22" t="s">
         <v>76</v>
       </c>
       <c r="G24" s="16" t="s">
@@ -1801,13 +1810,13 @@
       <c r="C25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G25" s="16" t="s">
@@ -1844,13 +1853,13 @@
       <c r="C26" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="22" t="s">
         <v>85</v>
       </c>
       <c r="G26" s="16" t="s">
@@ -1906,7 +1915,7 @@
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" ht="12.75">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1935,7 +1944,7 @@
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" ht="12.75">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1964,7 +1973,7 @@
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" ht="12.75">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1993,7 +2002,7 @@
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" ht="12.75">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2022,7 +2031,7 @@
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" ht="12.75">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2051,7 +2060,7 @@
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" ht="12.75">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2080,7 +2089,7 @@
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" ht="12.75">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2109,7 +2118,7 @@
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" ht="12.75">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -2138,7 +2147,7 @@
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" ht="12.75">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2167,7 +2176,7 @@
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" ht="12.75">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
